--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008720373954412669</v>
+        <v>0.087324523441786</v>
       </c>
       <c r="C2">
-        <v>0.4912137381019986</v>
+        <v>0.532791898334032</v>
       </c>
       <c r="D2">
-        <v>0.449870654038152</v>
+        <v>0.5528062467454449</v>
       </c>
       <c r="E2">
-        <v>0.6707239775333457</v>
+        <v>0.743509412681134</v>
       </c>
       <c r="F2">
-        <v>0.6810658489831435</v>
+        <v>0.7610876864711806</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01751532343037924</v>
+        <v>0.001144284503009711</v>
       </c>
       <c r="C3">
-        <v>0.4963738323981675</v>
+        <v>0.3931116398949452</v>
       </c>
       <c r="D3">
-        <v>0.4840329513744214</v>
+        <v>0.2245968071122517</v>
       </c>
       <c r="E3">
-        <v>0.695724766969253</v>
+        <v>0.4739164558361017</v>
       </c>
       <c r="F3">
-        <v>0.706287906926178</v>
+        <v>0.4885004773109793</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05463417142686183</v>
+        <v>0.2183027114686655</v>
       </c>
       <c r="C4">
-        <v>0.406274955370809</v>
+        <v>0.4424788170065723</v>
       </c>
       <c r="D4">
-        <v>0.2787527450029497</v>
+        <v>0.3666827254751553</v>
       </c>
       <c r="E4">
-        <v>0.5279704016353092</v>
+        <v>0.6055433307990067</v>
       </c>
       <c r="F4">
-        <v>0.5332781616570359</v>
+        <v>0.5822077098150801</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07526122136355841</v>
+        <v>0.07944540621654918</v>
       </c>
       <c r="C5">
-        <v>0.4903671525075065</v>
+        <v>0.4860981583435489</v>
       </c>
       <c r="D5">
-        <v>0.4158808334337339</v>
+        <v>0.3614563784931307</v>
       </c>
       <c r="E5">
-        <v>0.6448882332883226</v>
+        <v>0.6012124237681143</v>
       </c>
       <c r="F5">
-        <v>0.6504120618345481</v>
+        <v>0.6142811703890018</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07345650730036152</v>
+        <v>0.2020838518978592</v>
       </c>
       <c r="C6">
-        <v>0.4547045157441404</v>
+        <v>0.3911042730239319</v>
       </c>
       <c r="D6">
-        <v>0.4141518501738363</v>
+        <v>0.2849992644578546</v>
       </c>
       <c r="E6">
-        <v>0.6435463077151763</v>
+        <v>0.5338532237027839</v>
       </c>
       <c r="F6">
-        <v>0.6492531220178897</v>
+        <v>0.5093343377279087</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1211495932303036</v>
+        <v>0.148083212490263</v>
       </c>
       <c r="C7">
-        <v>0.4055676804093815</v>
+        <v>0.3930966733895834</v>
       </c>
       <c r="D7">
-        <v>0.3713956077379723</v>
+        <v>0.2550052339340027</v>
       </c>
       <c r="E7">
-        <v>0.6094223557910985</v>
+        <v>0.5049804292584047</v>
       </c>
       <c r="F7">
-        <v>0.606519441808583</v>
+        <v>0.4976383057699656</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1222121072319646</v>
+        <v>0.2335018036174021</v>
       </c>
       <c r="C8">
-        <v>0.4727796977439711</v>
+        <v>0.4725336998297775</v>
       </c>
       <c r="D8">
-        <v>0.4036336620216857</v>
+        <v>0.4322111561822374</v>
       </c>
       <c r="E8">
-        <v>0.6353216996307348</v>
+        <v>0.6574276813325077</v>
       </c>
       <c r="F8">
-        <v>0.6331229509994257</v>
+        <v>0.6334773617760631</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.148083212490263</v>
+        <v>0.3354567892334461</v>
       </c>
       <c r="C7">
-        <v>0.3930966733895834</v>
+        <v>0.4473419570207637</v>
       </c>
       <c r="D7">
-        <v>0.2550052339340027</v>
+        <v>0.3498717612155226</v>
       </c>
       <c r="E7">
-        <v>0.5049804292584047</v>
+        <v>0.5914995868261639</v>
       </c>
       <c r="F7">
-        <v>0.4976383057699656</v>
+        <v>0.5167282329661295</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2335018036174021</v>
+        <v>0.3876927802649587</v>
       </c>
       <c r="C8">
-        <v>0.4725336998297775</v>
+        <v>0.5634783286452841</v>
       </c>
       <c r="D8">
-        <v>0.4322111561822374</v>
+        <v>0.6514107857474178</v>
       </c>
       <c r="E8">
-        <v>0.6574276813325077</v>
+        <v>0.8071002327762133</v>
       </c>
       <c r="F8">
-        <v>0.6334773617760631</v>
+        <v>0.7508283629515968</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
